--- a/financial_models/opportunities/6601.HK_Valuation_v1.00.xlsx
+++ b/financial_models/opportunities/6601.HK_Valuation_v1.00.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F83D68A8-11DE-41E9-8FBC-E039DA6B735C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{74127074-03B5-459E-8251-7CAF2302C43E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3563,8 +3563,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A82" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F94" sqref="F94"/>
+    <sheetView showGridLines="0" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -4222,7 +4222,7 @@
       </c>
       <c r="C45" s="153">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>6.634000000000001E-2</v>
+        <v>6.7622093308630671E-2</v>
       </c>
       <c r="D45" s="153" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4962,7 +4962,7 @@
   <dimension ref="A1:J923"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5015,7 +5015,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>2</v>
@@ -5056,7 +5056,7 @@
       </c>
       <c r="G5" s="272">
         <f>G3*G4/1000000</f>
-        <v>2533.33365</v>
+        <v>2493.3336450000002</v>
       </c>
       <c r="H5" s="272"/>
       <c r="I5" s="38"/>
@@ -5105,7 +5105,7 @@
         <v>6</v>
       </c>
       <c r="G7" s="133">
-        <v>1.07</v>
+        <v>1.0734576781590779</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5272,7 +5272,7 @@
       </c>
       <c r="G23" s="178">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.78208562043439311</v>
+        <v>0.76725752666097502</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5288,7 +5288,7 @@
       </c>
       <c r="G24" s="179">
         <f>(Fin_Analysis!H86*G7)/G3</f>
-        <v>2.5518546481234326E-2</v>
+        <v>2.6011720398773835E-2</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5320,7 +5320,7 @@
       </c>
       <c r="G26" s="179">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>6.634000000000001E-2</v>
+        <v>6.7622093308630671E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5350,20 +5350,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>1.2970983742194995</v>
+        <v>1.3047629124137929</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>2.2058731796364111</v>
+        <v>2.2196771315829777</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>1.5259980873170584</v>
+        <v>1.5350151910750505</v>
       </c>
       <c r="G29" s="271">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>1.9181505909881835</v>
+        <v>1.930154027463459</v>
       </c>
       <c r="H29" s="271"/>
     </row>
@@ -10368,8 +10368,8 @@
   </sheetPr>
   <dimension ref="A2:K108"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A91" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E102" sqref="E102"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H103" sqref="H103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -10462,11 +10462,11 @@
       <c r="C6" s="87"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)*Exchange_Rate</f>
-        <v>2122475.0050000004</v>
+        <v>2129333.7297364273</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>0.29888659402528717</v>
+        <v>0.29662096364129154</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
@@ -10487,7 +10487,7 @@
       <c r="C7" s="87"/>
       <c r="D7" s="66">
         <f>MAX((D6*Exchange_Rate*Data!C4)/Common_Shares, 0)</f>
-        <v>1.7032859786017533</v>
+        <v>1.7143120168725039</v>
       </c>
       <c r="E7" s="11" t="str">
         <f>Dashboard!H3</f>
@@ -12238,17 +12238,17 @@
       </c>
       <c r="C87" s="262">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>2.5518546481234326E-2</v>
+        <v>2.6011720398773835E-2</v>
       </c>
       <c r="D87" s="210"/>
       <c r="E87" s="263">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>2.5518546481234326E-2</v>
+        <v>2.6011720398773835E-2</v>
       </c>
       <c r="F87" s="210"/>
       <c r="H87" s="263">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>2.5518546481234326E-2</v>
+        <v>2.6011720398773835E-2</v>
       </c>
       <c r="I87" s="210"/>
       <c r="K87" s="24"/>
@@ -12289,17 +12289,17 @@
       </c>
       <c r="C89" s="262">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.634000000000001E-2</v>
+        <v>6.7622093308630671E-2</v>
       </c>
       <c r="D89" s="210"/>
       <c r="E89" s="262">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.634000000000001E-2</v>
+        <v>6.7622093308630671E-2</v>
       </c>
       <c r="F89" s="210"/>
       <c r="H89" s="262">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.634000000000001E-2</v>
+        <v>6.7622093308630671E-2</v>
       </c>
       <c r="I89" s="210"/>
       <c r="K89" s="24"/>
@@ -12359,14 +12359,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
-        <v>0.76382634429865204</v>
+        <v>0.76813896609804966</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>211</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
-        <v>0.76382634429865204</v>
+        <v>0.76813896609804966</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12384,14 +12384,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/C93))*Exchange_Rate</f>
-        <v>2.4136543379398154</v>
+        <v>2.4360459903246228</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>212</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/C93))*Exchange_Rate</f>
-        <v>2.4136543379398154</v>
+        <v>2.4360459903246228</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12434,21 +12434,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>506342.31421708991</v>
+        <v>509201.16154351342</v>
       </c>
       <c r="D97" s="214"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>0.37975668819323138</v>
+        <v>0.38190082342003212</v>
       </c>
       <c r="F97" s="214"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>0.37975668819323138</v>
+        <v>0.38190082342003212</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>0.53953634590998067</v>
+        <v>0.54258260927115765</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12458,14 +12458,14 @@
       </c>
       <c r="C98" s="91">
         <f>E53*Exchange_Rate</f>
-        <v>4269.3</v>
+        <v>4283.0961358547211</v>
       </c>
       <c r="D98" s="214"/>
       <c r="E98" s="214"/>
       <c r="F98" s="214"/>
       <c r="H98" s="123">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>3.2019745997531749E-3</v>
+        <v>3.2123217003508283E-3</v>
       </c>
       <c r="I98" s="216"/>
       <c r="K98" s="24"/>
@@ -12476,17 +12476,17 @@
       </c>
       <c r="C99" s="108">
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
-        <v>2126744.3050000002</v>
+        <v>2133616.825872282</v>
       </c>
       <c r="D99" s="215"/>
       <c r="E99" s="146">
         <f>IF(H99&gt;0,H99*(1-C94),H99*(1+C94))</f>
-        <v>1.3557993249625846</v>
+        <v>1.3601805564710101</v>
       </c>
       <c r="F99" s="215"/>
       <c r="H99" s="146">
         <f>C99*Data!$C$4/Common_Shares</f>
-        <v>1.5950580293677465</v>
+        <v>1.600212419377659</v>
       </c>
       <c r="I99" s="217"/>
       <c r="K99" s="24"/>
@@ -12497,27 +12497,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>2628817.31921709</v>
+        <v>2638534.8912799405</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>1.5741858821448471</v>
+        <v>1.5800522411974134</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>1.7323540385560627</v>
+        <v>1.7388690581906914</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>1.8519833907586438</v>
+        <v>1.8588849896440158</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>1.9716127429612247</v>
+        <v>1.9789009210973403</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>2.1313924006779743</v>
+        <v>2.1395827069484659</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12558,27 +12558,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>1600017.2451694279</v>
+        <v>1614860.7251990126</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>1.0200108662941518</v>
+        <v>1.0294735836301725</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>1.2000127838754728</v>
+        <v>1.2111453925060853</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>1.2000127838754728</v>
+        <v>1.2111453925060853</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>1.2000127838754728</v>
+        <v>1.2111453925060853</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>1.704908781298393</v>
+        <v>1.7207253479784521</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12619,27 +12619,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>1954911.4593182588</v>
+        <v>1966676.5462990555</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>1.2970983742194995</v>
+        <v>1.3047629124137929</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>1.4661834112157677</v>
+        <v>1.4750072253483884</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>1.5259980873170584</v>
+        <v>1.5350151910750505</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>1.5858127634183488</v>
+        <v>1.5950231568017128</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>1.9181505909881835</v>
+        <v>1.930154027463459</v>
       </c>
       <c r="K106" s="24"/>
     </row>
